--- a/Code/Results/Cases/Case_4_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.427171445492149</v>
+        <v>0.8943026715494398</v>
       </c>
       <c r="C2">
-        <v>0.6788355420532355</v>
+        <v>0.2207033664204516</v>
       </c>
       <c r="D2">
-        <v>0.5636712761581748</v>
+        <v>0.6463507405400435</v>
       </c>
       <c r="E2">
-        <v>0.2523265199637308</v>
+        <v>0.2640199051264958</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4568407915713522</v>
+        <v>0.5641648832301627</v>
       </c>
       <c r="H2">
-        <v>0.3202697060925459</v>
+        <v>0.6794157543653654</v>
       </c>
       <c r="I2">
-        <v>0.1922912464664819</v>
+        <v>0.4555822578606126</v>
       </c>
       <c r="J2">
-        <v>0.1499904046522644</v>
+        <v>0.1377449535323407</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7241099794748109</v>
+        <v>0.9928180756836795</v>
       </c>
       <c r="O2">
-        <v>1.589294812696636</v>
+        <v>2.462085459092208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.111084257389905</v>
+        <v>0.7983501396883526</v>
       </c>
       <c r="C3">
-        <v>0.5913420003608962</v>
+        <v>0.1938668191324666</v>
       </c>
       <c r="D3">
-        <v>0.5069771421372025</v>
+        <v>0.6355131684779849</v>
       </c>
       <c r="E3">
-        <v>0.2256899862856159</v>
+        <v>0.2587149794968155</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4177927714738985</v>
+        <v>0.5601569542302798</v>
       </c>
       <c r="H3">
-        <v>0.3083764166120915</v>
+        <v>0.6819553233815725</v>
       </c>
       <c r="I3">
-        <v>0.1926256964996114</v>
+        <v>0.4607534365761055</v>
       </c>
       <c r="J3">
-        <v>0.133210128934536</v>
+        <v>0.1342381605419618</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.725133617630334</v>
+        <v>0.9955897625118837</v>
       </c>
       <c r="O3">
-        <v>1.481195892065813</v>
+        <v>2.458583285427864</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.917177247397262</v>
+        <v>0.7394098925317394</v>
       </c>
       <c r="C4">
-        <v>0.5376587195149796</v>
+        <v>0.177351592814091</v>
       </c>
       <c r="D4">
-        <v>0.4728473440485459</v>
+        <v>0.629192979444241</v>
       </c>
       <c r="E4">
-        <v>0.2096473680190769</v>
+        <v>0.2556003478742213</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3949110887608072</v>
+        <v>0.5581432135588784</v>
       </c>
       <c r="H4">
-        <v>0.3017386314582211</v>
+        <v>0.6838758657685275</v>
       </c>
       <c r="I4">
-        <v>0.1934947611471536</v>
+        <v>0.464247973045449</v>
       </c>
       <c r="J4">
-        <v>0.123098248779165</v>
+        <v>0.1321636387888461</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7266272877262239</v>
+        <v>0.9976915983850958</v>
       </c>
       <c r="O4">
-        <v>1.418521956626279</v>
+        <v>2.458125525397378</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.838178098106738</v>
+        <v>0.7153865102837926</v>
       </c>
       <c r="C5">
-        <v>0.5157846289956751</v>
+        <v>0.1706124497135306</v>
       </c>
       <c r="D5">
-        <v>0.459097181352945</v>
+        <v>0.6267015522837198</v>
       </c>
       <c r="E5">
-        <v>0.2031819868863778</v>
+        <v>0.2543669864242872</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3858422046824899</v>
+        <v>0.5574347905124597</v>
       </c>
       <c r="H5">
-        <v>0.2991920103974763</v>
+        <v>0.6847493231125554</v>
       </c>
       <c r="I5">
-        <v>0.194007213651588</v>
+        <v>0.4657522070288493</v>
       </c>
       <c r="J5">
-        <v>0.1190214256169142</v>
+        <v>0.1313380249694447</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7274461338438627</v>
+        <v>0.9986489032584842</v>
       </c>
       <c r="O5">
-        <v>1.393852194789929</v>
+        <v>2.458364039722198</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.825060867068004</v>
+        <v>0.7113972041525471</v>
       </c>
       <c r="C6">
-        <v>0.5121523868308202</v>
+        <v>0.169492884188827</v>
       </c>
       <c r="D6">
-        <v>0.4568231499700062</v>
+        <v>0.6262929346762576</v>
       </c>
       <c r="E6">
-        <v>0.2021125899596541</v>
+        <v>0.2541643549792099</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3843512094142909</v>
+        <v>0.5573239263876246</v>
       </c>
       <c r="H6">
-        <v>0.2987784594287035</v>
+        <v>0.6848998449600572</v>
       </c>
       <c r="I6">
-        <v>0.1941016237557029</v>
+        <v>0.4660068227286089</v>
       </c>
       <c r="J6">
-        <v>0.1183470009976304</v>
+        <v>0.1312021262411349</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.727594587945589</v>
+        <v>0.9988139565576901</v>
       </c>
       <c r="O6">
-        <v>1.38980667811083</v>
+        <v>2.458429300790897</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.916111788323178</v>
+        <v>0.739085922007348</v>
       </c>
       <c r="C7">
-        <v>0.5373637179313562</v>
+        <v>0.1772607425436377</v>
       </c>
       <c r="D7">
-        <v>0.4726612816279214</v>
+        <v>0.6291590385523591</v>
       </c>
       <c r="E7">
-        <v>0.2095598898594488</v>
+        <v>0.2555835690486532</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3947877727843689</v>
+        <v>0.5581332055804182</v>
       </c>
       <c r="H7">
-        <v>0.3017036570870033</v>
+        <v>0.6838872778116496</v>
       </c>
       <c r="I7">
-        <v>0.1935010423518548</v>
+        <v>0.4642679351993486</v>
       </c>
       <c r="J7">
-        <v>0.1230430952102708</v>
+        <v>0.1321524242345475</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7266374894812699</v>
+        <v>0.9977041005666436</v>
       </c>
       <c r="O7">
-        <v>1.418185804266983</v>
+        <v>2.458127021800522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.318134101709859</v>
+        <v>0.8612243182632255</v>
       </c>
       <c r="C8">
-        <v>0.6486552851152112</v>
+        <v>0.211458116961154</v>
       </c>
       <c r="D8">
-        <v>0.5439737210473083</v>
+        <v>0.6425446429332737</v>
       </c>
       <c r="E8">
-        <v>0.2430734376656858</v>
+        <v>0.2621611736721121</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4431379172888938</v>
+        <v>0.5626899939842218</v>
       </c>
       <c r="H8">
-        <v>0.3160254713197759</v>
+        <v>0.6802164126988259</v>
       </c>
       <c r="I8">
-        <v>0.1922635057913062</v>
+        <v>0.4572989042172786</v>
       </c>
       <c r="J8">
-        <v>0.1441622294124514</v>
+        <v>0.136519477329557</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7242787901140062</v>
+        <v>0.9936908509086138</v>
       </c>
       <c r="O8">
-        <v>1.55121750413096</v>
+        <v>2.460526266988722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.109047570749738</v>
+        <v>1.100483224427819</v>
       </c>
       <c r="C9">
-        <v>0.8675656919723735</v>
+        <v>0.278208651519833</v>
       </c>
       <c r="D9">
-        <v>0.6898546456312147</v>
+        <v>0.6714434191805481</v>
       </c>
       <c r="E9">
-        <v>0.3115827275678811</v>
+        <v>0.2761917838373265</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5475689779963204</v>
+        <v>0.5751861823226534</v>
       </c>
       <c r="H9">
-        <v>0.3498087081101886</v>
+        <v>0.6758853839070298</v>
       </c>
       <c r="I9">
-        <v>0.1955124813447888</v>
+        <v>0.4461732482453264</v>
       </c>
       <c r="J9">
-        <v>0.1873004974989811</v>
+        <v>0.1457084857370745</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.726873122000697</v>
+        <v>0.9889866788372785</v>
       </c>
       <c r="O9">
-        <v>1.844317481997308</v>
+        <v>2.478690546316784</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.693516765731488</v>
+        <v>1.276054193981395</v>
       </c>
       <c r="C10">
-        <v>1.029371707868592</v>
+        <v>0.327048228606543</v>
       </c>
       <c r="D10">
-        <v>0.8016696089217987</v>
+        <v>0.6942918716734141</v>
       </c>
       <c r="E10">
-        <v>0.3640840833018544</v>
+        <v>0.2871921387892371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6315503325936049</v>
+        <v>0.5865568451016401</v>
       </c>
       <c r="H10">
-        <v>0.3787334461756586</v>
+        <v>0.6744541169232434</v>
       </c>
       <c r="I10">
-        <v>0.2019641524369149</v>
+        <v>0.4395566809312434</v>
       </c>
       <c r="J10">
-        <v>0.2203544780845874</v>
+        <v>0.1528431953021112</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.733708006470053</v>
+        <v>0.9874508872261316</v>
       </c>
       <c r="O10">
-        <v>2.083578342884437</v>
+        <v>2.500287798479349</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.960589036543752</v>
+        <v>1.355868692195656</v>
       </c>
       <c r="C11">
-        <v>1.103331524561497</v>
+        <v>0.3492203268741605</v>
       </c>
       <c r="D11">
-        <v>0.8537742237489283</v>
+        <v>0.7050377088406208</v>
       </c>
       <c r="E11">
-        <v>0.3885517523972766</v>
+        <v>0.2923472839407637</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6716656705660711</v>
+        <v>0.5922093832505482</v>
       </c>
       <c r="H11">
-        <v>0.3929346965522313</v>
+        <v>0.6741837869796541</v>
       </c>
       <c r="I11">
-        <v>0.2059261438771287</v>
+        <v>0.43688668906346</v>
       </c>
       <c r="J11">
-        <v>0.2357618225203026</v>
+        <v>0.1561728113328513</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7380138777102019</v>
+        <v>0.9871673522067397</v>
       </c>
       <c r="O11">
-        <v>2.198644888564814</v>
+        <v>2.511915234135813</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.061933606687603</v>
+        <v>1.386083335704257</v>
       </c>
       <c r="C12">
-        <v>1.131401413677111</v>
+        <v>0.3576095034179048</v>
       </c>
       <c r="D12">
-        <v>0.8737037977160469</v>
+        <v>0.7091574596218493</v>
       </c>
       <c r="E12">
-        <v>0.3979112242397065</v>
+        <v>0.2943211318280774</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6871613757869568</v>
+        <v>0.5944191735630824</v>
       </c>
       <c r="H12">
-        <v>0.3984760332491533</v>
+        <v>0.6741362124868431</v>
       </c>
       <c r="I12">
-        <v>0.2075871719701823</v>
+        <v>0.43592466728715</v>
       </c>
       <c r="J12">
-        <v>0.2416562739547174</v>
+        <v>0.1574457560473945</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7398278348398009</v>
+        <v>0.9871195165037534</v>
       </c>
       <c r="O12">
-        <v>2.243205413285835</v>
+        <v>2.516578205261425</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.040097249691257</v>
+        <v>1.379576515015515</v>
       </c>
       <c r="C13">
-        <v>1.125353058453925</v>
+        <v>0.3558030581858702</v>
       </c>
       <c r="D13">
-        <v>0.8694024272489855</v>
+        <v>0.7082679512135712</v>
       </c>
       <c r="E13">
-        <v>0.3958911408611243</v>
+        <v>0.2938950631574144</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6838100353809438</v>
+        <v>0.5939401692659061</v>
       </c>
       <c r="H13">
-        <v>0.3972751014151044</v>
+        <v>0.6741440208930527</v>
       </c>
       <c r="I13">
-        <v>0.2072220746500051</v>
+        <v>0.4361296718968148</v>
       </c>
       <c r="J13">
-        <v>0.2403840163291449</v>
+        <v>0.1571710666662796</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7394288198753287</v>
+        <v>0.9871271735054137</v>
       </c>
       <c r="O13">
-        <v>2.233563051717312</v>
+        <v>2.51556238041664</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.968922273117528</v>
+        <v>1.358354666505193</v>
       </c>
       <c r="C14">
-        <v>1.105639517207578</v>
+        <v>0.3499106504040697</v>
       </c>
       <c r="D14">
-        <v>0.8554097367432973</v>
+        <v>0.7053756308467882</v>
       </c>
       <c r="E14">
-        <v>0.3893198155063686</v>
+        <v>0.292509238633194</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.672934220846173</v>
+        <v>0.5923897936278451</v>
       </c>
       <c r="H14">
-        <v>0.393387224439266</v>
+        <v>0.6741787746176726</v>
       </c>
       <c r="I14">
-        <v>0.2060594988173747</v>
+        <v>0.4368065590410168</v>
       </c>
       <c r="J14">
-        <v>0.2362455193253936</v>
+        <v>0.1562772948614963</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7381593692382467</v>
+        <v>0.9871622244968705</v>
       </c>
       <c r="O14">
-        <v>2.202290569121004</v>
+        <v>2.512293646617309</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.925354100598327</v>
+        <v>1.345354401327143</v>
       </c>
       <c r="C15">
-        <v>1.093572974495771</v>
+        <v>0.3463004678143875</v>
       </c>
       <c r="D15">
-        <v>0.8468653199493019</v>
+        <v>0.7036105800573296</v>
       </c>
       <c r="E15">
-        <v>0.3853072550834398</v>
+        <v>0.2916632075592958</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6663131068899304</v>
+        <v>0.5914491765141889</v>
       </c>
       <c r="H15">
-        <v>0.3910275194610904</v>
+        <v>0.6742071992343028</v>
       </c>
       <c r="I15">
-        <v>0.2053687192780949</v>
+        <v>0.4372275641628072</v>
       </c>
       <c r="J15">
-        <v>0.2337185952756613</v>
+        <v>0.1557314088394861</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7374060308632551</v>
+        <v>0.9871914425625903</v>
       </c>
       <c r="O15">
-        <v>2.18326670500079</v>
+        <v>2.51032532143455</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.676090201781676</v>
+        <v>1.270836907493788</v>
       </c>
       <c r="C16">
-        <v>1.024546380550845</v>
+        <v>0.3255982841482705</v>
       </c>
       <c r="D16">
-        <v>0.7982911022651251</v>
+        <v>0.6935966817945314</v>
       </c>
       <c r="E16">
-        <v>0.3624976659471955</v>
+        <v>0.2868582760341738</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6289696816632642</v>
+        <v>0.5861971203920291</v>
       </c>
       <c r="H16">
-        <v>0.3778274936036894</v>
+        <v>0.6744794489657266</v>
       </c>
       <c r="I16">
-        <v>0.201726985308806</v>
+        <v>0.4397380254223222</v>
       </c>
       <c r="J16">
-        <v>0.2193555949218791</v>
+        <v>0.1526272884166815</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7334516383956213</v>
+        <v>0.9874777561780377</v>
       </c>
       <c r="O16">
-        <v>2.076191458618126</v>
+        <v>2.499564252230243</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.52350703621363</v>
+        <v>1.22510792011775</v>
       </c>
       <c r="C17">
-        <v>0.9822995872328022</v>
+        <v>0.3128862809202246</v>
       </c>
       <c r="D17">
-        <v>0.7688238917956198</v>
+        <v>0.6875435711278612</v>
       </c>
       <c r="E17">
-        <v>0.3486613289367568</v>
+        <v>0.2839492800822327</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6065709707662279</v>
+        <v>0.5830982832127489</v>
       </c>
       <c r="H17">
-        <v>0.3700062632960766</v>
+        <v>0.6747440161050804</v>
       </c>
       <c r="I17">
-        <v>0.199764922952518</v>
+        <v>0.4413652916297011</v>
       </c>
       <c r="J17">
-        <v>0.2106439486322387</v>
+        <v>0.1507445343819285</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7313400545331206</v>
+        <v>0.9877596038349026</v>
       </c>
       <c r="O17">
-        <v>2.012162093426156</v>
+        <v>2.493424894754469</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.435855163422787</v>
+        <v>1.198800868629746</v>
       </c>
       <c r="C18">
-        <v>0.9580328310855464</v>
+        <v>0.3055704360302798</v>
       </c>
       <c r="D18">
-        <v>0.7519904746959867</v>
+        <v>0.6840951148107592</v>
       </c>
       <c r="E18">
-        <v>0.3407574061041103</v>
+        <v>0.2822903187554431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5938658448961149</v>
+        <v>0.5813610741728041</v>
       </c>
       <c r="H18">
-        <v>0.3656050179821762</v>
+        <v>0.6749320246509001</v>
       </c>
       <c r="I18">
-        <v>0.1987322375417797</v>
+        <v>0.4423332368329049</v>
       </c>
       <c r="J18">
-        <v>0.2056677215223743</v>
+        <v>0.1496695298948083</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7302374358601753</v>
+        <v>0.9879607958535814</v>
       </c>
       <c r="O18">
-        <v>1.975914157095275</v>
+        <v>2.490063340136061</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.406195509753275</v>
+        <v>1.189892954096877</v>
       </c>
       <c r="C19">
-        <v>0.9498217525894574</v>
+        <v>0.3030927013616065</v>
       </c>
       <c r="D19">
-        <v>0.7463101819884059</v>
+        <v>0.6829332196726341</v>
       </c>
       <c r="E19">
-        <v>0.3380903192308509</v>
+        <v>0.2817310649489144</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.589593806483748</v>
+        <v>0.5807806328528216</v>
       </c>
       <c r="H19">
-        <v>0.3641311488500349</v>
+        <v>0.6750018348413391</v>
       </c>
       <c r="I19">
-        <v>0.1983986677778091</v>
+        <v>0.4426664547835095</v>
       </c>
       <c r="J19">
-        <v>0.2039885838527624</v>
+        <v>0.1493069093097432</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7298829959987927</v>
+        <v>0.9880356330896234</v>
       </c>
       <c r="O19">
-        <v>1.963738163553131</v>
+        <v>2.488954290790105</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.539738130030287</v>
+        <v>1.229976373003694</v>
       </c>
       <c r="C20">
-        <v>0.9867933846586254</v>
+        <v>0.3142399368091446</v>
       </c>
       <c r="D20">
-        <v>0.7719486460515554</v>
+        <v>0.6881845065210825</v>
       </c>
       <c r="E20">
-        <v>0.3501285331451882</v>
+        <v>0.2842574764269017</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6089367175252391</v>
+        <v>0.5834234837965226</v>
       </c>
       <c r="H20">
-        <v>0.3708286791482465</v>
+        <v>0.6747121432401286</v>
       </c>
       <c r="I20">
-        <v>0.1999637774535721</v>
+        <v>0.4411887548583628</v>
       </c>
       <c r="J20">
-        <v>0.2115677028625242</v>
+        <v>0.1509441384511803</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.731553174545482</v>
+        <v>0.9877255571298917</v>
       </c>
       <c r="O20">
-        <v>2.018917450074611</v>
+        <v>2.494060877637907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.989822064866416</v>
+        <v>1.364588305509415</v>
       </c>
       <c r="C21">
-        <v>1.111428052895292</v>
+        <v>0.3516415843284904</v>
       </c>
       <c r="D21">
-        <v>0.859514165576428</v>
+        <v>0.706223804538439</v>
       </c>
       <c r="E21">
-        <v>0.3912473352022303</v>
+        <v>0.2929156998771916</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6761201857492836</v>
+        <v>0.5928432936260606</v>
       </c>
       <c r="H21">
-        <v>0.3945246334156707</v>
+        <v>0.6741670791979715</v>
       </c>
       <c r="I21">
-        <v>0.2063965053975885</v>
+        <v>0.4366064084527927</v>
       </c>
       <c r="J21">
-        <v>0.2374594111142159</v>
+        <v>0.1565394890526903</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7385271653426173</v>
+        <v>0.987150314702987</v>
       </c>
       <c r="O21">
-        <v>2.211448489865006</v>
+        <v>2.513246693556539</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.285222782894152</v>
+        <v>1.452509572627207</v>
       </c>
       <c r="C22">
-        <v>1.193257136715147</v>
+        <v>0.37604522446901</v>
       </c>
       <c r="D22">
-        <v>0.9179121041229905</v>
+        <v>0.7183080526554591</v>
       </c>
       <c r="E22">
-        <v>0.4186745805045078</v>
+        <v>0.2987008650378513</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7218212868135367</v>
+        <v>0.5994037271857025</v>
       </c>
       <c r="H22">
-        <v>0.4109721856629136</v>
+        <v>0.6741302464699714</v>
       </c>
       <c r="I22">
-        <v>0.2115441509648406</v>
+        <v>0.4338975361572039</v>
       </c>
       <c r="J22">
-        <v>0.254734521087542</v>
+        <v>0.1602668575981738</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7441600259636942</v>
+        <v>0.9871212938558358</v>
       </c>
       <c r="O22">
-        <v>2.343081578075839</v>
+        <v>2.527301024647784</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.127434402624203</v>
+        <v>1.405589956733252</v>
       </c>
       <c r="C23">
-        <v>1.14954498589907</v>
+        <v>0.3630243819451948</v>
       </c>
       <c r="D23">
-        <v>0.8866298814330662</v>
+        <v>0.7118315381880507</v>
       </c>
       <c r="E23">
-        <v>0.4039819415535888</v>
+        <v>0.2956016411008022</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6972551749407074</v>
+        <v>0.595865238623503</v>
       </c>
       <c r="H23">
-        <v>0.4021011143359488</v>
+        <v>0.6741206663003823</v>
       </c>
       <c r="I23">
-        <v>0.2087058679851168</v>
+        <v>0.4353170923144951</v>
       </c>
       <c r="J23">
-        <v>0.2454797782101821</v>
+        <v>0.1582710376022334</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.741051341259535</v>
+        <v>0.9871050893897717</v>
       </c>
       <c r="O23">
-        <v>2.272263206660938</v>
+        <v>2.519661089222637</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.532399836650313</v>
+        <v>1.227775397804294</v>
       </c>
       <c r="C24">
-        <v>0.9847616728117146</v>
+        <v>0.3136279724546966</v>
       </c>
       <c r="D24">
-        <v>0.7705356107967987</v>
+        <v>0.687894641327091</v>
       </c>
       <c r="E24">
-        <v>0.3494650527294709</v>
+        <v>0.2841180989359557</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6078666293166322</v>
+        <v>0.5832763224736226</v>
       </c>
       <c r="H24">
-        <v>0.3704565691691784</v>
+        <v>0.6747264411196454</v>
       </c>
       <c r="I24">
-        <v>0.1998735793732251</v>
+        <v>0.4412684661941455</v>
       </c>
       <c r="J24">
-        <v>0.2111499737332281</v>
+        <v>0.1508538743540271</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7314564769774137</v>
+        <v>0.9877408276681905</v>
       </c>
       <c r="O24">
-        <v>2.015861605349556</v>
+        <v>2.493772826374226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.894631134622159</v>
+        <v>1.035790532808505</v>
       </c>
       <c r="C25">
-        <v>0.808217537209714</v>
+        <v>0.2601854231375569</v>
       </c>
       <c r="D25">
-        <v>0.6496490936025907</v>
+        <v>0.663341745513975</v>
       </c>
       <c r="E25">
-        <v>0.292704345728076</v>
+        <v>0.2722747426092269</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5181500853927048</v>
+        <v>0.5714224831459092</v>
       </c>
       <c r="H25">
-        <v>0.3399969962770513</v>
+        <v>0.6767497846496866</v>
       </c>
       <c r="I25">
-        <v>0.1939659368620816</v>
+        <v>0.4489101523926351</v>
       </c>
       <c r="J25">
-        <v>0.1754153433704246</v>
+        <v>0.1431554333788583</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7253461096544811</v>
+        <v>0.98992137528397</v>
       </c>
       <c r="O25">
-        <v>1.761152867407844</v>
+        <v>2.472330875022124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8943026715494398</v>
+        <v>2.427171445492263</v>
       </c>
       <c r="C2">
-        <v>0.2207033664204516</v>
+        <v>0.678835542053065</v>
       </c>
       <c r="D2">
-        <v>0.6463507405400435</v>
+        <v>0.5636712761582885</v>
       </c>
       <c r="E2">
-        <v>0.2640199051264958</v>
+        <v>0.2523265199637379</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5641648832301627</v>
+        <v>0.4568407915712953</v>
       </c>
       <c r="H2">
-        <v>0.6794157543653654</v>
+        <v>0.3202697060925601</v>
       </c>
       <c r="I2">
-        <v>0.4555822578606126</v>
+        <v>0.1922912464664641</v>
       </c>
       <c r="J2">
-        <v>0.1377449535323407</v>
+        <v>0.1499904046522573</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9928180756836795</v>
+        <v>0.7241099794748109</v>
       </c>
       <c r="O2">
-        <v>2.462085459092208</v>
+        <v>1.589294812696579</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7983501396883526</v>
+        <v>2.111084257390019</v>
       </c>
       <c r="C3">
-        <v>0.1938668191324666</v>
+        <v>0.5913420003609247</v>
       </c>
       <c r="D3">
-        <v>0.6355131684779849</v>
+        <v>0.5069771421372025</v>
       </c>
       <c r="E3">
-        <v>0.2587149794968155</v>
+        <v>0.225689986285623</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5601569542302798</v>
+        <v>0.4177927714738985</v>
       </c>
       <c r="H3">
-        <v>0.6819553233815725</v>
+        <v>0.3083764166122052</v>
       </c>
       <c r="I3">
-        <v>0.4607534365761055</v>
+        <v>0.1926256964996149</v>
       </c>
       <c r="J3">
-        <v>0.1342381605419618</v>
+        <v>0.1332101289345218</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9955897625118837</v>
+        <v>0.7251336176304051</v>
       </c>
       <c r="O3">
-        <v>2.458583285427864</v>
+        <v>1.481195892065784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7394098925317394</v>
+        <v>1.917177247397262</v>
       </c>
       <c r="C4">
-        <v>0.177351592814091</v>
+        <v>0.5376587195153206</v>
       </c>
       <c r="D4">
-        <v>0.629192979444241</v>
+        <v>0.4728473440484606</v>
       </c>
       <c r="E4">
-        <v>0.2556003478742213</v>
+        <v>0.2096473680190982</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5581432135588784</v>
+        <v>0.3949110887607929</v>
       </c>
       <c r="H4">
-        <v>0.6838758657685275</v>
+        <v>0.3017386314582211</v>
       </c>
       <c r="I4">
-        <v>0.464247973045449</v>
+        <v>0.1934947611471536</v>
       </c>
       <c r="J4">
-        <v>0.1321636387888461</v>
+        <v>0.1230982487791294</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9976915983850958</v>
+        <v>0.726627287726231</v>
       </c>
       <c r="O4">
-        <v>2.458125525397378</v>
+        <v>1.418521956626392</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7153865102837926</v>
+        <v>1.838178098106766</v>
       </c>
       <c r="C5">
-        <v>0.1706124497135306</v>
+        <v>0.5157846289954477</v>
       </c>
       <c r="D5">
-        <v>0.6267015522837198</v>
+        <v>0.4590971813529734</v>
       </c>
       <c r="E5">
-        <v>0.2543669864242872</v>
+        <v>0.2031819868863991</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5574347905124597</v>
+        <v>0.3858422046824899</v>
       </c>
       <c r="H5">
-        <v>0.6847493231125554</v>
+        <v>0.2991920103974905</v>
       </c>
       <c r="I5">
-        <v>0.4657522070288493</v>
+        <v>0.1940072136515809</v>
       </c>
       <c r="J5">
-        <v>0.1313380249694447</v>
+        <v>0.1190214256169639</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9986489032584842</v>
+        <v>0.7274461338439053</v>
       </c>
       <c r="O5">
-        <v>2.458364039722198</v>
+        <v>1.393852194789844</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7113972041525471</v>
+        <v>1.825060867068146</v>
       </c>
       <c r="C6">
-        <v>0.169492884188827</v>
+        <v>0.5121523868307918</v>
       </c>
       <c r="D6">
-        <v>0.6262929346762576</v>
+        <v>0.456823149970262</v>
       </c>
       <c r="E6">
-        <v>0.2541643549792099</v>
+        <v>0.2021125899596541</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5573239263876246</v>
+        <v>0.3843512094142625</v>
       </c>
       <c r="H6">
-        <v>0.6848998449600572</v>
+        <v>0.2987784594287035</v>
       </c>
       <c r="I6">
-        <v>0.4660068227286089</v>
+        <v>0.1941016237557029</v>
       </c>
       <c r="J6">
-        <v>0.1312021262411349</v>
+        <v>0.1183470009975593</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9988139565576901</v>
+        <v>0.727594587945589</v>
       </c>
       <c r="O6">
-        <v>2.458429300790897</v>
+        <v>1.38980667811083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.739085922007348</v>
+        <v>1.916111788323178</v>
       </c>
       <c r="C7">
-        <v>0.1772607425436377</v>
+        <v>0.5373637179316972</v>
       </c>
       <c r="D7">
-        <v>0.6291590385523591</v>
+        <v>0.472661281627893</v>
       </c>
       <c r="E7">
-        <v>0.2555835690486532</v>
+        <v>0.209559889859456</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5581332055804182</v>
+        <v>0.3947877727843832</v>
       </c>
       <c r="H7">
-        <v>0.6838872778116496</v>
+        <v>0.3017036570870175</v>
       </c>
       <c r="I7">
-        <v>0.4642679351993486</v>
+        <v>0.1935010423518371</v>
       </c>
       <c r="J7">
-        <v>0.1321524242345475</v>
+        <v>0.1230430952101358</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9977041005666436</v>
+        <v>0.7266374894812628</v>
       </c>
       <c r="O7">
-        <v>2.458127021800522</v>
+        <v>1.418185804266983</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8612243182632255</v>
+        <v>2.318134101709973</v>
       </c>
       <c r="C8">
-        <v>0.211458116961154</v>
+        <v>0.6486552851152112</v>
       </c>
       <c r="D8">
-        <v>0.6425446429332737</v>
+        <v>0.5439737210474505</v>
       </c>
       <c r="E8">
-        <v>0.2621611736721121</v>
+        <v>0.2430734376656858</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5626899939842218</v>
+        <v>0.4431379172888938</v>
       </c>
       <c r="H8">
-        <v>0.6802164126988259</v>
+        <v>0.3160254713197901</v>
       </c>
       <c r="I8">
-        <v>0.4572989042172786</v>
+        <v>0.1922635057912991</v>
       </c>
       <c r="J8">
-        <v>0.136519477329557</v>
+        <v>0.1441622294124301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9936908509086138</v>
+        <v>0.7242787901139991</v>
       </c>
       <c r="O8">
-        <v>2.460526266988722</v>
+        <v>1.551217504131017</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.100483224427819</v>
+        <v>3.109047570749738</v>
       </c>
       <c r="C9">
-        <v>0.278208651519833</v>
+        <v>0.8675656919721746</v>
       </c>
       <c r="D9">
-        <v>0.6714434191805481</v>
+        <v>0.6898546456315273</v>
       </c>
       <c r="E9">
-        <v>0.2761917838373265</v>
+        <v>0.3115827275679024</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5751861823226534</v>
+        <v>0.5475689779963346</v>
       </c>
       <c r="H9">
-        <v>0.6758853839070298</v>
+        <v>0.3498087081100749</v>
       </c>
       <c r="I9">
-        <v>0.4461732482453264</v>
+        <v>0.1955124813447888</v>
       </c>
       <c r="J9">
-        <v>0.1457084857370745</v>
+        <v>0.1873004974989172</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9889866788372785</v>
+        <v>0.7268731220006828</v>
       </c>
       <c r="O9">
-        <v>2.478690546316784</v>
+        <v>1.844317481997308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.276054193981395</v>
+        <v>3.693516765731374</v>
       </c>
       <c r="C10">
-        <v>0.327048228606543</v>
+        <v>1.029371707868933</v>
       </c>
       <c r="D10">
-        <v>0.6942918716734141</v>
+        <v>0.8016696089219124</v>
       </c>
       <c r="E10">
-        <v>0.2871921387892371</v>
+        <v>0.3640840833018189</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5865568451016401</v>
+        <v>0.6315503325935907</v>
       </c>
       <c r="H10">
-        <v>0.6744541169232434</v>
+        <v>0.3787334461757865</v>
       </c>
       <c r="I10">
-        <v>0.4395566809312434</v>
+        <v>0.2019641524369007</v>
       </c>
       <c r="J10">
-        <v>0.1528431953021112</v>
+        <v>0.2203544780846869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9874508872261316</v>
+        <v>0.7337080064699819</v>
       </c>
       <c r="O10">
-        <v>2.500287798479349</v>
+        <v>2.083578342884437</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.355868692195656</v>
+        <v>3.960589036543809</v>
       </c>
       <c r="C11">
-        <v>0.3492203268741605</v>
+        <v>1.103331524561668</v>
       </c>
       <c r="D11">
-        <v>0.7050377088406208</v>
+        <v>0.8537742237490988</v>
       </c>
       <c r="E11">
-        <v>0.2923472839407637</v>
+        <v>0.3885517523972766</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5922093832505482</v>
+        <v>0.6716656705660711</v>
       </c>
       <c r="H11">
-        <v>0.6741837869796541</v>
+        <v>0.3929346965522313</v>
       </c>
       <c r="I11">
-        <v>0.43688668906346</v>
+        <v>0.2059261438771252</v>
       </c>
       <c r="J11">
-        <v>0.1561728113328513</v>
+        <v>0.2357618225203595</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9871673522067397</v>
+        <v>0.7380138777101308</v>
       </c>
       <c r="O11">
-        <v>2.511915234135813</v>
+        <v>2.198644888564786</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.386083335704257</v>
+        <v>4.06193360668783</v>
       </c>
       <c r="C12">
-        <v>0.3576095034179048</v>
+        <v>1.131401413677281</v>
       </c>
       <c r="D12">
-        <v>0.7091574596218493</v>
+        <v>0.8737037977159048</v>
       </c>
       <c r="E12">
-        <v>0.2943211318280774</v>
+        <v>0.3979112242396923</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5944191735630824</v>
+        <v>0.6871613757869852</v>
       </c>
       <c r="H12">
-        <v>0.6741362124868431</v>
+        <v>0.3984760332492527</v>
       </c>
       <c r="I12">
-        <v>0.43592466728715</v>
+        <v>0.2075871719701858</v>
       </c>
       <c r="J12">
-        <v>0.1574457560473945</v>
+        <v>0.2416562739546606</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9871195165037534</v>
+        <v>0.7398278348398009</v>
       </c>
       <c r="O12">
-        <v>2.516578205261425</v>
+        <v>2.243205413285835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.379576515015515</v>
+        <v>4.040097249691314</v>
       </c>
       <c r="C13">
-        <v>0.3558030581858702</v>
+        <v>1.125353058453925</v>
       </c>
       <c r="D13">
-        <v>0.7082679512135712</v>
+        <v>0.8694024272490708</v>
       </c>
       <c r="E13">
-        <v>0.2938950631574144</v>
+        <v>0.3958911408611456</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5939401692659061</v>
+        <v>0.683810035380958</v>
       </c>
       <c r="H13">
-        <v>0.6741440208930527</v>
+        <v>0.3972751014149907</v>
       </c>
       <c r="I13">
-        <v>0.4361296718968148</v>
+        <v>0.2072220746499909</v>
       </c>
       <c r="J13">
-        <v>0.1571710666662796</v>
+        <v>0.2403840163291306</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9871271735054137</v>
+        <v>0.7394288198753287</v>
       </c>
       <c r="O13">
-        <v>2.51556238041664</v>
+        <v>2.233563051717312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.358354666505193</v>
+        <v>3.968922273117585</v>
       </c>
       <c r="C14">
-        <v>0.3499106504040697</v>
+        <v>1.105639517207294</v>
       </c>
       <c r="D14">
-        <v>0.7053756308467882</v>
+        <v>0.8554097367431837</v>
       </c>
       <c r="E14">
-        <v>0.292509238633194</v>
+        <v>0.3893198155063686</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5923897936278451</v>
+        <v>0.6729342208461873</v>
       </c>
       <c r="H14">
-        <v>0.6741787746176726</v>
+        <v>0.3933872244393939</v>
       </c>
       <c r="I14">
-        <v>0.4368065590410168</v>
+        <v>0.2060594988173925</v>
       </c>
       <c r="J14">
-        <v>0.1562772948614963</v>
+        <v>0.2362455193253794</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9871622244968705</v>
+        <v>0.7381593692382467</v>
       </c>
       <c r="O14">
-        <v>2.512293646617309</v>
+        <v>2.202290569121033</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.345354401327143</v>
+        <v>3.925354100598327</v>
       </c>
       <c r="C15">
-        <v>0.3463004678143875</v>
+        <v>1.093572974495828</v>
       </c>
       <c r="D15">
-        <v>0.7036105800573296</v>
+        <v>0.8468653199495009</v>
       </c>
       <c r="E15">
-        <v>0.2916632075592958</v>
+        <v>0.3853072550834469</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5914491765141889</v>
+        <v>0.6663131068899872</v>
       </c>
       <c r="H15">
-        <v>0.6742071992343028</v>
+        <v>0.3910275194610904</v>
       </c>
       <c r="I15">
-        <v>0.4372275641628072</v>
+        <v>0.2053687192780949</v>
       </c>
       <c r="J15">
-        <v>0.1557314088394861</v>
+        <v>0.2337185952756329</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9871914425625903</v>
+        <v>0.7374060308632409</v>
       </c>
       <c r="O15">
-        <v>2.51032532143455</v>
+        <v>2.183266705000847</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.270836907493788</v>
+        <v>3.676090201781619</v>
       </c>
       <c r="C16">
-        <v>0.3255982841482705</v>
+        <v>1.024546380550731</v>
       </c>
       <c r="D16">
-        <v>0.6935966817945314</v>
+        <v>0.7982911022650399</v>
       </c>
       <c r="E16">
-        <v>0.2868582760341738</v>
+        <v>0.3624976659472168</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5861971203920291</v>
+        <v>0.6289696816632357</v>
       </c>
       <c r="H16">
-        <v>0.6744794489657266</v>
+        <v>0.3778274936036894</v>
       </c>
       <c r="I16">
-        <v>0.4397380254223222</v>
+        <v>0.2017269853088131</v>
       </c>
       <c r="J16">
-        <v>0.1526272884166815</v>
+        <v>0.2193555949219075</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9874777561780377</v>
+        <v>0.7334516383956213</v>
       </c>
       <c r="O16">
-        <v>2.499564252230243</v>
+        <v>2.076191458618155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.22510792011775</v>
+        <v>3.523507036213573</v>
       </c>
       <c r="C17">
-        <v>0.3128862809202246</v>
+        <v>0.9822995872325464</v>
       </c>
       <c r="D17">
-        <v>0.6875435711278612</v>
+        <v>0.7688238917956198</v>
       </c>
       <c r="E17">
-        <v>0.2839492800822327</v>
+        <v>0.3486613289367497</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5830982832127489</v>
+        <v>0.6065709707661853</v>
       </c>
       <c r="H17">
-        <v>0.6747440161050804</v>
+        <v>0.3700062632960766</v>
       </c>
       <c r="I17">
-        <v>0.4413652916297011</v>
+        <v>0.199764922952518</v>
       </c>
       <c r="J17">
-        <v>0.1507445343819285</v>
+        <v>0.2106439486322245</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9877596038349026</v>
+        <v>0.7313400545331064</v>
       </c>
       <c r="O17">
-        <v>2.493424894754469</v>
+        <v>2.012162093426156</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.198800868629746</v>
+        <v>3.43585516342273</v>
       </c>
       <c r="C18">
-        <v>0.3055704360302798</v>
+        <v>0.9580328310854895</v>
       </c>
       <c r="D18">
-        <v>0.6840951148107592</v>
+        <v>0.7519904746961004</v>
       </c>
       <c r="E18">
-        <v>0.2822903187554431</v>
+        <v>0.3407574061041032</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5813610741728041</v>
+        <v>0.5938658448960723</v>
       </c>
       <c r="H18">
-        <v>0.6749320246509001</v>
+        <v>0.3656050179821762</v>
       </c>
       <c r="I18">
-        <v>0.4423332368329049</v>
+        <v>0.1987322375417797</v>
       </c>
       <c r="J18">
-        <v>0.1496695298948083</v>
+        <v>0.2056677215223601</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9879607958535814</v>
+        <v>0.7302374358601611</v>
       </c>
       <c r="O18">
-        <v>2.490063340136061</v>
+        <v>1.975914157095275</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.189892954096877</v>
+        <v>3.406195509753218</v>
       </c>
       <c r="C19">
-        <v>0.3030927013616065</v>
+        <v>0.9498217525894006</v>
       </c>
       <c r="D19">
-        <v>0.6829332196726341</v>
+        <v>0.7463101819883207</v>
       </c>
       <c r="E19">
-        <v>0.2817310649489144</v>
+        <v>0.3380903192308509</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5807806328528216</v>
+        <v>0.5895938064837765</v>
       </c>
       <c r="H19">
-        <v>0.6750018348413391</v>
+        <v>0.3641311488501486</v>
       </c>
       <c r="I19">
-        <v>0.4426664547835095</v>
+        <v>0.1983986677777949</v>
       </c>
       <c r="J19">
-        <v>0.1493069093097432</v>
+        <v>0.2039885838527624</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9880356330896234</v>
+        <v>0.7298829959988069</v>
       </c>
       <c r="O19">
-        <v>2.488954290790105</v>
+        <v>1.963738163553131</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.229976373003694</v>
+        <v>3.539738130030457</v>
       </c>
       <c r="C20">
-        <v>0.3142399368091446</v>
+        <v>0.9867933846586538</v>
       </c>
       <c r="D20">
-        <v>0.6881845065210825</v>
+        <v>0.771948646051527</v>
       </c>
       <c r="E20">
-        <v>0.2842574764269017</v>
+        <v>0.3501285331451882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5834234837965226</v>
+        <v>0.6089367175252534</v>
       </c>
       <c r="H20">
-        <v>0.6747121432401286</v>
+        <v>0.3708286791482465</v>
       </c>
       <c r="I20">
-        <v>0.4411887548583628</v>
+        <v>0.1999637774535685</v>
       </c>
       <c r="J20">
-        <v>0.1509441384511803</v>
+        <v>0.21156770286251</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9877255571298917</v>
+        <v>0.7315531745454109</v>
       </c>
       <c r="O20">
-        <v>2.494060877637907</v>
+        <v>2.018917450074696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.364588305509415</v>
+        <v>3.989822064866303</v>
       </c>
       <c r="C21">
-        <v>0.3516415843284904</v>
+        <v>1.111428052895349</v>
       </c>
       <c r="D21">
-        <v>0.706223804538439</v>
+        <v>0.859514165576428</v>
       </c>
       <c r="E21">
-        <v>0.2929156998771916</v>
+        <v>0.3912473352022303</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5928432936260606</v>
+        <v>0.6761201857492551</v>
       </c>
       <c r="H21">
-        <v>0.6741670791979715</v>
+        <v>0.394524633415557</v>
       </c>
       <c r="I21">
-        <v>0.4366064084527927</v>
+        <v>0.2063965053975885</v>
       </c>
       <c r="J21">
-        <v>0.1565394890526903</v>
+        <v>0.2374594111142159</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.987150314702987</v>
+        <v>0.7385271653426031</v>
       </c>
       <c r="O21">
-        <v>2.513246693556539</v>
+        <v>2.211448489865006</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.452509572627207</v>
+        <v>4.285222782894152</v>
       </c>
       <c r="C22">
-        <v>0.37604522446901</v>
+        <v>1.193257136714976</v>
       </c>
       <c r="D22">
-        <v>0.7183080526554591</v>
+        <v>0.9179121041229052</v>
       </c>
       <c r="E22">
-        <v>0.2987008650378513</v>
+        <v>0.4186745805045291</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5994037271857025</v>
+        <v>0.7218212868135367</v>
       </c>
       <c r="H22">
-        <v>0.6741302464699714</v>
+        <v>0.4109721856630415</v>
       </c>
       <c r="I22">
-        <v>0.4338975361572039</v>
+        <v>0.2115441509648228</v>
       </c>
       <c r="J22">
-        <v>0.1602668575981738</v>
+        <v>0.2547345210875278</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9871212938558358</v>
+        <v>0.74416002596368</v>
       </c>
       <c r="O22">
-        <v>2.527301024647784</v>
+        <v>2.343081578075896</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.405589956733252</v>
+        <v>4.127434402624203</v>
       </c>
       <c r="C23">
-        <v>0.3630243819451948</v>
+        <v>1.149544985899183</v>
       </c>
       <c r="D23">
-        <v>0.7118315381880507</v>
+        <v>0.8866298814332083</v>
       </c>
       <c r="E23">
-        <v>0.2956016411008022</v>
+        <v>0.4039819415535817</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.595865238623503</v>
+        <v>0.6972551749407927</v>
       </c>
       <c r="H23">
-        <v>0.6741206663003823</v>
+        <v>0.4021011143359488</v>
       </c>
       <c r="I23">
-        <v>0.4353170923144951</v>
+        <v>0.2087058679851168</v>
       </c>
       <c r="J23">
-        <v>0.1582710376022334</v>
+        <v>0.2454797782101394</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9871050893897717</v>
+        <v>0.741051341259535</v>
       </c>
       <c r="O23">
-        <v>2.519661089222637</v>
+        <v>2.272263206660966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.227775397804294</v>
+        <v>3.532399836650086</v>
       </c>
       <c r="C24">
-        <v>0.3136279724546966</v>
+        <v>0.9847616728116577</v>
       </c>
       <c r="D24">
-        <v>0.687894641327091</v>
+        <v>0.7705356107967987</v>
       </c>
       <c r="E24">
-        <v>0.2841180989359557</v>
+        <v>0.349465052729478</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5832763224736226</v>
+        <v>0.607866629316689</v>
       </c>
       <c r="H24">
-        <v>0.6747264411196454</v>
+        <v>0.3704565691690505</v>
       </c>
       <c r="I24">
-        <v>0.4412684661941455</v>
+        <v>0.1998735793732251</v>
       </c>
       <c r="J24">
-        <v>0.1508538743540271</v>
+        <v>0.2111499737331997</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9877408276681905</v>
+        <v>0.7314564769774137</v>
       </c>
       <c r="O24">
-        <v>2.493772826374226</v>
+        <v>2.015861605349556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.035790532808505</v>
+        <v>2.894631134622102</v>
       </c>
       <c r="C25">
-        <v>0.2601854231375569</v>
+        <v>0.8082175372094582</v>
       </c>
       <c r="D25">
-        <v>0.663341745513975</v>
+        <v>0.6496490936025623</v>
       </c>
       <c r="E25">
-        <v>0.2722747426092269</v>
+        <v>0.2927043457280902</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5714224831459092</v>
+        <v>0.5181500853926764</v>
       </c>
       <c r="H25">
-        <v>0.6767497846496866</v>
+        <v>0.3399969962771507</v>
       </c>
       <c r="I25">
-        <v>0.4489101523926351</v>
+        <v>0.1939659368620781</v>
       </c>
       <c r="J25">
-        <v>0.1431554333788583</v>
+        <v>0.1754153433704104</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.98992137528397</v>
+        <v>0.7253461096544953</v>
       </c>
       <c r="O25">
-        <v>2.472330875022124</v>
+        <v>1.761152867407816</v>
       </c>
     </row>
   </sheetData>
